--- a/sputnik/personal/cel/cel100.xlsx
+++ b/sputnik/personal/cel/cel100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +209,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,7 +520,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,12 +620,28 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="18">
+        <v>44021</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="14"/>

--- a/sputnik/personal/cel/cel100.xlsx
+++ b/sputnik/personal/cel/cel100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -168,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -199,7 +205,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A11" sqref="A11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -548,7 +553,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -560,7 +565,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -572,7 +577,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -584,7 +589,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -596,7 +601,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43822</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -608,7 +613,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43822</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -620,7 +625,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>43952</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -632,7 +637,7 @@
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>44021</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -644,12 +649,64 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2050</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel100.xlsx
+++ b/sputnik/personal/cel/cel100.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -525,7 +537,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,33 +680,57 @@
         <v>11</v>
       </c>
       <c r="C12" s="13">
-        <v>2050</v>
+        <v>170</v>
       </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="17">
+        <v>44469</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="17">
+        <v>44469</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>170</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="17">
+        <v>44469</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>431</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="17">
+        <v>44469</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>1449</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
